--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:31:39+00:00</t>
+    <t>2024-12-17T21:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Represents the final outcome of the TB case, including case closure, treatment success, or necessary corrections.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -540,39 +543,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -580,26 +585,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -657,112 +662,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -778,10 +783,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>19</v>
@@ -793,13 +798,13 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -850,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>19</v>
@@ -867,10 +872,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -878,10 +883,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>19</v>
@@ -893,7 +898,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -946,13 +951,13 @@
         <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>19</v>
@@ -963,10 +968,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -974,10 +979,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>19</v>
@@ -989,13 +994,13 @@
         <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1022,11 +1027,11 @@
         <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>19</v>
@@ -1044,13 +1049,13 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>19</v>
@@ -1061,10 +1066,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1072,10 +1077,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>19</v>
@@ -1087,13 +1092,13 @@
         <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1120,11 +1125,11 @@
         <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>19</v>
@@ -1142,13 +1147,13 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>19</v>
@@ -1159,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1170,10 +1175,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
@@ -1185,13 +1190,13 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1242,13 +1247,13 @@
         <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>19</v>
@@ -1259,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1270,10 +1275,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>19</v>
@@ -1285,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1342,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>19</v>
@@ -1359,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1370,10 +1375,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>19</v>
@@ -1385,13 +1390,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1442,13 +1447,13 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>19</v>
@@ -1459,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1470,10 +1475,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>19</v>
@@ -1485,13 +1490,13 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1542,13 +1547,13 @@
         <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>19</v>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:48:04+00:00</t>
+    <t>2024-12-17T21:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,7 +264,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---treatment-outcome-vs</t>
+    <t>http://example.org/ValueSet/TBCSTreatmentOutcomeVS</t>
   </si>
   <si>
     <t>Outcome.reasonForDenotification</t>
@@ -273,7 +273,7 @@
     <t>TB CS - Outcome - Reason for case denotification</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---denotification-reasons-vs</t>
+    <t>http://example.org/ValueSet/TBCSDenotificationReasonsVS</t>
   </si>
   <si>
     <t>Outcome.provideDuplicateSRecordNumber</t>
@@ -648,7 +648,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.28515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.4375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:30:07+00:00</t>
+    <t>2024-12-19T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:00:06+00:00</t>
+    <t>2025-01-07T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -249,6 +249,9 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>Execution date</t>
   </si>
   <si>
     <t>Outcome.treatmentOutcome</t>
@@ -900,8 +903,12 @@
       <c r="K3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -968,10 +975,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -994,13 +1001,13 @@
         <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1027,11 +1034,11 @@
         <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>19</v>
@@ -1049,7 +1056,7 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>71</v>
@@ -1066,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1092,13 +1099,13 @@
         <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1125,11 +1132,11 @@
         <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>19</v>
@@ -1147,7 +1154,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>71</v>
@@ -1164,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1190,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1247,7 +1254,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>71</v>
@@ -1264,10 +1271,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1290,13 +1297,13 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1347,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>71</v>
@@ -1364,10 +1371,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1390,13 +1397,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1447,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>71</v>
@@ -1464,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1490,13 +1497,13 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1547,7 +1554,7 @@
         <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Outcome.xlsx
+++ b/StructureDefinition-Outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
